--- a/Code/Results/Cases/Case_0_101/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_101/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.022495442330501</v>
+        <v>1.073327139394411</v>
       </c>
       <c r="D2">
-        <v>1.030650291197297</v>
+        <v>1.075973923348161</v>
       </c>
       <c r="E2">
-        <v>1.032270606907714</v>
+        <v>1.076538476814783</v>
       </c>
       <c r="F2">
-        <v>1.040142622075021</v>
+        <v>1.085503883737039</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058216231245881</v>
+        <v>1.05183948584513</v>
       </c>
       <c r="J2">
-        <v>1.044023523328843</v>
+        <v>1.078242206291264</v>
       </c>
       <c r="K2">
-        <v>1.04169851557502</v>
+        <v>1.078659079184975</v>
       </c>
       <c r="L2">
-        <v>1.043297948014031</v>
+        <v>1.079222144536872</v>
       </c>
       <c r="M2">
-        <v>1.051069661104013</v>
+        <v>1.08816414337042</v>
       </c>
       <c r="N2">
-        <v>1.045506156483142</v>
+        <v>1.079773433900307</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.032237443042023</v>
+        <v>1.075138003723011</v>
       </c>
       <c r="D3">
-        <v>1.039737984284502</v>
+        <v>1.077703532402589</v>
       </c>
       <c r="E3">
-        <v>1.040900477295756</v>
+        <v>1.078168336174205</v>
       </c>
       <c r="F3">
-        <v>1.049109020892623</v>
+        <v>1.087214261235087</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.061732437118499</v>
+        <v>1.052351135115382</v>
       </c>
       <c r="J3">
-        <v>1.051886262604286</v>
+        <v>1.079707697141129</v>
       </c>
       <c r="K3">
-        <v>1.049886455885363</v>
+        <v>1.080203873611861</v>
       </c>
       <c r="L3">
-        <v>1.051035466485583</v>
+        <v>1.080667542307511</v>
       </c>
       <c r="M3">
-        <v>1.059149857497397</v>
+        <v>1.08969158436577</v>
       </c>
       <c r="N3">
-        <v>1.053380061750225</v>
+        <v>1.081241005915274</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.03830189702693</v>
+        <v>1.076306281046743</v>
       </c>
       <c r="D4">
-        <v>1.045399768889253</v>
+        <v>1.078819539352444</v>
       </c>
       <c r="E4">
-        <v>1.046274673760909</v>
+        <v>1.079219552491735</v>
       </c>
       <c r="F4">
-        <v>1.054696251221678</v>
+        <v>1.088317828673072</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063903533092051</v>
+        <v>1.05267907201375</v>
       </c>
       <c r="J4">
-        <v>1.056774111847408</v>
+        <v>1.080652181150632</v>
       </c>
       <c r="K4">
-        <v>1.054979477775542</v>
+        <v>1.081199831930304</v>
       </c>
       <c r="L4">
-        <v>1.05584492882926</v>
+        <v>1.08159891818876</v>
       </c>
       <c r="M4">
-        <v>1.064176488146414</v>
+        <v>1.090676309610072</v>
       </c>
       <c r="N4">
-        <v>1.058274852299916</v>
+        <v>1.082186831200404</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.040798225730897</v>
+        <v>1.076796611188501</v>
       </c>
       <c r="D5">
-        <v>1.047731367731625</v>
+        <v>1.079287967057067</v>
       </c>
       <c r="E5">
-        <v>1.048487259043323</v>
+        <v>1.079660682838797</v>
       </c>
       <c r="F5">
-        <v>1.05699736381592</v>
+        <v>1.088781027640585</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.064792897167634</v>
+        <v>1.052816192296552</v>
       </c>
       <c r="J5">
-        <v>1.058784421136337</v>
+        <v>1.081048350408905</v>
       </c>
       <c r="K5">
-        <v>1.057074893109139</v>
+        <v>1.081617679694437</v>
       </c>
       <c r="L5">
-        <v>1.057822861319225</v>
+        <v>1.081989551377564</v>
       </c>
       <c r="M5">
-        <v>1.066244718562964</v>
+        <v>1.091089433773776</v>
       </c>
       <c r="N5">
-        <v>1.060288016458621</v>
+        <v>1.082583563064465</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.041214363590288</v>
+        <v>1.076878892578104</v>
       </c>
       <c r="D6">
-        <v>1.048120102777681</v>
+        <v>1.079366575110901</v>
       </c>
       <c r="E6">
-        <v>1.048856117005629</v>
+        <v>1.079734704049858</v>
       </c>
       <c r="F6">
-        <v>1.057381028040704</v>
+        <v>1.088858757807704</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064940897414592</v>
+        <v>1.05283917191682</v>
       </c>
       <c r="J6">
-        <v>1.059119438225219</v>
+        <v>1.081114817097994</v>
       </c>
       <c r="K6">
-        <v>1.057424135481252</v>
+        <v>1.081687788584258</v>
       </c>
       <c r="L6">
-        <v>1.058152474576992</v>
+        <v>1.082055087048984</v>
       </c>
       <c r="M6">
-        <v>1.066589437158333</v>
+        <v>1.091158749473245</v>
       </c>
       <c r="N6">
-        <v>1.060623509310196</v>
+        <v>1.082650124143876</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.038335456911675</v>
+        <v>1.076312836034924</v>
       </c>
       <c r="D7">
-        <v>1.045431110257899</v>
+        <v>1.07882580139821</v>
       </c>
       <c r="E7">
-        <v>1.046304417670037</v>
+        <v>1.079225450022869</v>
       </c>
       <c r="F7">
-        <v>1.054727181970575</v>
+        <v>1.088324020849276</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063915506688596</v>
+        <v>1.052680907138412</v>
       </c>
       <c r="J7">
-        <v>1.056801144623758</v>
+        <v>1.080657478267848</v>
       </c>
       <c r="K7">
-        <v>1.055007652120519</v>
+        <v>1.081205418564006</v>
       </c>
       <c r="L7">
-        <v>1.055871526784998</v>
+        <v>1.081604141432469</v>
       </c>
       <c r="M7">
-        <v>1.064204296478986</v>
+        <v>1.09068183313184</v>
       </c>
       <c r="N7">
-        <v>1.058301923465909</v>
+        <v>1.082192135840134</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.025839970911853</v>
+        <v>1.073939859338367</v>
       </c>
       <c r="D8">
-        <v>1.033769144206866</v>
+        <v>1.076559118159918</v>
       </c>
       <c r="E8">
-        <v>1.035232827213092</v>
+        <v>1.077090011361249</v>
       </c>
       <c r="F8">
-        <v>1.043219614465042</v>
+        <v>1.086082578042739</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.059427107925519</v>
+        <v>1.052013052733868</v>
       </c>
       <c r="J8">
-        <v>1.046724270406772</v>
+        <v>1.078738268704684</v>
       </c>
       <c r="K8">
-        <v>1.044510323622752</v>
+        <v>1.079181909871055</v>
       </c>
       <c r="L8">
-        <v>1.045955794286338</v>
+        <v>1.079711438522983</v>
       </c>
       <c r="M8">
-        <v>1.053844322518185</v>
+        <v>1.088681110140228</v>
       </c>
       <c r="N8">
-        <v>1.048210738931702</v>
+        <v>1.080270200779253</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.001774684552573</v>
+        <v>1.069730969466355</v>
       </c>
       <c r="D9">
-        <v>1.011352635208454</v>
+        <v>1.072539952401742</v>
       </c>
       <c r="E9">
-        <v>1.013932532677841</v>
+        <v>1.073300254874714</v>
       </c>
       <c r="F9">
-        <v>1.021109793514683</v>
+        <v>1.082107936352549</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050639318228903</v>
+        <v>1.050811931359911</v>
       </c>
       <c r="J9">
-        <v>1.027264929405681</v>
+        <v>1.075326712553536</v>
       </c>
       <c r="K9">
-        <v>1.024264170433994</v>
+        <v>1.075587765101548</v>
       </c>
       <c r="L9">
-        <v>1.026803537417535</v>
+        <v>1.07634577013152</v>
       </c>
       <c r="M9">
-        <v>1.03386941794786</v>
+        <v>1.085127093293324</v>
       </c>
       <c r="N9">
-        <v>1.028723763434371</v>
+        <v>1.07685379982706</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9839976027846883</v>
+        <v>1.066905491141266</v>
       </c>
       <c r="D10">
-        <v>0.9948320017884555</v>
+        <v>1.069842680790814</v>
       </c>
       <c r="E10">
-        <v>0.9982233104387326</v>
+        <v>1.0707547044288</v>
       </c>
       <c r="F10">
-        <v>1.004824625136928</v>
+        <v>1.079440396178243</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04405479626208</v>
+        <v>1.049994479639924</v>
       </c>
       <c r="J10">
-        <v>1.012860831535303</v>
+        <v>1.073031464981936</v>
       </c>
       <c r="K10">
-        <v>1.009295197205411</v>
+        <v>1.07317156687478</v>
       </c>
       <c r="L10">
-        <v>1.012624717831733</v>
+        <v>1.0740805573439</v>
       </c>
       <c r="M10">
-        <v>1.019107312469575</v>
+        <v>1.082737644179124</v>
       </c>
       <c r="N10">
-        <v>1.014299210092845</v>
+        <v>1.07455529274064</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9757865912552041</v>
+        <v>1.065677137699419</v>
       </c>
       <c r="D11">
-        <v>0.9872129043867968</v>
+        <v>1.068670272547695</v>
       </c>
       <c r="E11">
-        <v>0.9909762266018566</v>
+        <v>1.069647711505717</v>
       </c>
       <c r="F11">
-        <v>0.9973171269157751</v>
+        <v>1.078280877354683</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040992922334715</v>
+        <v>1.049636466104409</v>
       </c>
       <c r="J11">
-        <v>1.006202559866342</v>
+        <v>1.072032436680987</v>
       </c>
       <c r="K11">
-        <v>1.002380063792717</v>
+        <v>1.072120342395583</v>
       </c>
       <c r="L11">
-        <v>1.006070348360082</v>
+        <v>1.073094401198535</v>
       </c>
       <c r="M11">
-        <v>1.012289816270066</v>
+        <v>1.081698004602055</v>
       </c>
       <c r="N11">
-        <v>1.007631482914399</v>
+        <v>1.073554845704913</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9726486015874641</v>
+        <v>1.065220114069328</v>
       </c>
       <c r="D12">
-        <v>0.9843031155719371</v>
+        <v>1.068234096026355</v>
       </c>
       <c r="E12">
-        <v>0.9882082345738658</v>
+        <v>1.069235791576703</v>
       </c>
       <c r="F12">
-        <v>0.9944504907052186</v>
+        <v>1.077849491199162</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039819843286247</v>
+        <v>1.049502867740204</v>
       </c>
       <c r="J12">
-        <v>1.003657387990102</v>
+        <v>1.07166055807034</v>
       </c>
       <c r="K12">
-        <v>0.9997373511491618</v>
+        <v>1.071729101673856</v>
       </c>
       <c r="L12">
-        <v>1.003564887569631</v>
+        <v>1.072727283793576</v>
       </c>
       <c r="M12">
-        <v>1.009684788490282</v>
+        <v>1.081311067636538</v>
       </c>
       <c r="N12">
-        <v>1.00508269660216</v>
+        <v>1.073182438983984</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9733258959981246</v>
+        <v>1.065318181866214</v>
       </c>
       <c r="D13">
-        <v>0.9849310616115967</v>
+        <v>1.068327689005378</v>
       </c>
       <c r="E13">
-        <v>0.9888055917555142</v>
+        <v>1.069324183305087</v>
       </c>
       <c r="F13">
-        <v>0.9950690987717287</v>
+        <v>1.077942056502642</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040073166193418</v>
+        <v>1.049531553048483</v>
       </c>
       <c r="J13">
-        <v>1.004206753513491</v>
+        <v>1.071740363564635</v>
       </c>
       <c r="K13">
-        <v>1.000307741203319</v>
+        <v>1.071813059245688</v>
       </c>
       <c r="L13">
-        <v>1.004105681353046</v>
+        <v>1.072806068903409</v>
       </c>
       <c r="M13">
-        <v>1.010247026996379</v>
+        <v>1.081394102006435</v>
       </c>
       <c r="N13">
-        <v>1.005632842287604</v>
+        <v>1.073262357811235</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9755290716233285</v>
+        <v>1.065639375583798</v>
       </c>
       <c r="D14">
-        <v>0.9869740702780693</v>
+        <v>1.068634232291828</v>
       </c>
       <c r="E14">
-        <v>0.9907490363814183</v>
+        <v>1.069613677151618</v>
       </c>
       <c r="F14">
-        <v>0.9970818234786383</v>
+        <v>1.078245233015718</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040896711543789</v>
+        <v>1.049625435435912</v>
       </c>
       <c r="J14">
-        <v>1.005993700632051</v>
+        <v>1.072001713402922</v>
       </c>
       <c r="K14">
-        <v>1.002163187155936</v>
+        <v>1.072088018115098</v>
       </c>
       <c r="L14">
-        <v>1.005864747792004</v>
+        <v>1.073064071893464</v>
       </c>
       <c r="M14">
-        <v>1.012076024380508</v>
+        <v>1.08166603605752</v>
       </c>
       <c r="N14">
-        <v>1.007422327076039</v>
+        <v>1.073524078796269</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9768744876007969</v>
+        <v>1.065837172469545</v>
       </c>
       <c r="D15">
-        <v>0.9882219455466867</v>
+        <v>1.06882301144019</v>
       </c>
       <c r="E15">
-        <v>0.991936063030472</v>
+        <v>1.069791946088215</v>
       </c>
       <c r="F15">
-        <v>0.9983112735346564</v>
+        <v>1.078431938146569</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041399249110581</v>
+        <v>1.049683197595231</v>
       </c>
       <c r="J15">
-        <v>1.007084866808014</v>
+        <v>1.072162633769645</v>
       </c>
       <c r="K15">
-        <v>1.003296265739304</v>
+        <v>1.072257326865278</v>
       </c>
       <c r="L15">
-        <v>1.006938889295777</v>
+        <v>1.073222927492355</v>
       </c>
       <c r="M15">
-        <v>1.013193002031358</v>
+        <v>1.081833481205491</v>
       </c>
       <c r="N15">
-        <v>1.00851504283313</v>
+        <v>1.073685227688372</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9845308411594103</v>
+        <v>1.06698690775714</v>
       </c>
       <c r="D16">
-        <v>0.9953270574999742</v>
+        <v>1.06992039374219</v>
       </c>
       <c r="E16">
-        <v>0.9986941533078902</v>
+        <v>1.07082807011587</v>
       </c>
       <c r="F16">
-        <v>1.005312497673534</v>
+        <v>1.079517254056228</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044253231096917</v>
+        <v>1.05001815382014</v>
       </c>
       <c r="J16">
-        <v>1.013293140525739</v>
+        <v>1.073097656710871</v>
       </c>
       <c r="K16">
-        <v>1.009744271542046</v>
+        <v>1.073241226354016</v>
       </c>
       <c r="L16">
-        <v>1.013050278110347</v>
+        <v>1.074145891978257</v>
       </c>
       <c r="M16">
-        <v>1.019550093415143</v>
+        <v>1.082806534877778</v>
       </c>
       <c r="N16">
-        <v>1.014732133011633</v>
+        <v>1.074621578469421</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9891889711179216</v>
+        <v>1.06770677836861</v>
       </c>
       <c r="D17">
-        <v>0.9996529574307776</v>
+        <v>1.070607541351581</v>
       </c>
       <c r="E17">
-        <v>1.00280823582255</v>
+        <v>1.071476717258215</v>
       </c>
       <c r="F17">
-        <v>1.009575973012049</v>
+        <v>1.080196837121209</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045984390279408</v>
+        <v>1.050227173035645</v>
       </c>
       <c r="J17">
-        <v>1.017069035664749</v>
+        <v>1.073682774753475</v>
       </c>
       <c r="K17">
-        <v>1.013667074297742</v>
+        <v>1.073857050125738</v>
       </c>
       <c r="L17">
-        <v>1.016767205005467</v>
+        <v>1.074723410370882</v>
       </c>
       <c r="M17">
-        <v>1.023418158455483</v>
+        <v>1.083415556164365</v>
       </c>
       <c r="N17">
-        <v>1.018513390354842</v>
+        <v>1.075207527446761</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9918572845245419</v>
+        <v>1.068126195172117</v>
       </c>
       <c r="D18">
-        <v>1.002132015699948</v>
+        <v>1.07100791282661</v>
       </c>
       <c r="E18">
-        <v>1.00516569913264</v>
+        <v>1.071854604911215</v>
       </c>
       <c r="F18">
-        <v>1.012019530678844</v>
+        <v>1.080592797799428</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046974129517361</v>
+        <v>1.050348700003999</v>
       </c>
       <c r="J18">
-        <v>1.019231483007033</v>
+        <v>1.074023566522991</v>
       </c>
       <c r="K18">
-        <v>1.015914048977064</v>
+        <v>1.074215769074791</v>
       </c>
       <c r="L18">
-        <v>1.018895857666505</v>
+        <v>1.075059756556244</v>
       </c>
       <c r="M18">
-        <v>1.025633967278607</v>
+        <v>1.083770307549264</v>
       </c>
       <c r="N18">
-        <v>1.020678908620388</v>
+        <v>1.075548803179679</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9927591476254161</v>
+        <v>1.068269126139652</v>
       </c>
       <c r="D19">
-        <v>1.002970084977427</v>
+        <v>1.071144356803671</v>
       </c>
       <c r="E19">
-        <v>1.005962625439483</v>
+        <v>1.071983377861587</v>
       </c>
       <c r="F19">
-        <v>1.012845642889004</v>
+        <v>1.080727738048838</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047308321512388</v>
+        <v>1.050390071565684</v>
       </c>
       <c r="J19">
-        <v>1.019962279303006</v>
+        <v>1.074139683838872</v>
       </c>
       <c r="K19">
-        <v>1.016673477746687</v>
+        <v>1.074338002005369</v>
       </c>
       <c r="L19">
-        <v>1.019615228349458</v>
+        <v>1.075174355868215</v>
       </c>
       <c r="M19">
-        <v>1.026382892949029</v>
+        <v>1.083891187671087</v>
       </c>
       <c r="N19">
-        <v>1.021410742730925</v>
+        <v>1.075665085395467</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9886943065128395</v>
+        <v>1.067629591996764</v>
       </c>
       <c r="D20">
-        <v>0.9991934620053061</v>
+        <v>1.070533861548058</v>
       </c>
       <c r="E20">
-        <v>1.002371260894842</v>
+        <v>1.071407170994198</v>
       </c>
       <c r="F20">
-        <v>1.009123079330832</v>
+        <v>1.080123968766874</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045800750749549</v>
+        <v>1.050204787687302</v>
       </c>
       <c r="J20">
-        <v>1.016668109391478</v>
+        <v>1.073620048733728</v>
       </c>
       <c r="K20">
-        <v>1.013250508252452</v>
+        <v>1.073791027912952</v>
       </c>
       <c r="L20">
-        <v>1.01637254229679</v>
+        <v>1.074661501050087</v>
       </c>
       <c r="M20">
-        <v>1.023007385112381</v>
+        <v>1.083350263770283</v>
       </c>
       <c r="N20">
-        <v>1.018111894720275</v>
+        <v>1.075144712348871</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9748828211695353</v>
+        <v>1.065544813154207</v>
       </c>
       <c r="D21">
-        <v>0.9863747443507559</v>
+        <v>1.068543982196474</v>
       </c>
       <c r="E21">
-        <v>0.990178925155404</v>
+        <v>1.069528448833724</v>
       </c>
       <c r="F21">
-        <v>0.9964913661905667</v>
+        <v>1.07815597427505</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040655222370968</v>
+        <v>1.049597806483532</v>
       </c>
       <c r="J21">
-        <v>1.00546955562258</v>
+        <v>1.071924774482744</v>
       </c>
       <c r="K21">
-        <v>1.001618932381677</v>
+        <v>1.072007070965121</v>
       </c>
       <c r="L21">
-        <v>1.005348780614244</v>
+        <v>1.072988119091838</v>
       </c>
       <c r="M21">
-        <v>1.011539517003794</v>
+        <v>1.081585979622314</v>
       </c>
       <c r="N21">
-        <v>1.006897437720535</v>
+        <v>1.073447030614</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9656823225034645</v>
+        <v>1.064229630633448</v>
       </c>
       <c r="D22">
-        <v>0.977847448367821</v>
+        <v>1.067288852839333</v>
       </c>
       <c r="E22">
-        <v>0.9820667133181465</v>
+        <v>1.068342968227619</v>
       </c>
       <c r="F22">
-        <v>0.9880916525405384</v>
+        <v>1.076914620364721</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037210412286043</v>
+        <v>1.049212604398046</v>
       </c>
       <c r="J22">
-        <v>0.9980063064821647</v>
+        <v>1.070854279392552</v>
       </c>
       <c r="K22">
-        <v>0.9938709065132233</v>
+        <v>1.070880966934275</v>
       </c>
       <c r="L22">
-        <v>0.9980020044365977</v>
+        <v>1.071931272302368</v>
       </c>
       <c r="M22">
-        <v>1.003902765765322</v>
+        <v>1.08047224830682</v>
       </c>
       <c r="N22">
-        <v>0.9994235899102929</v>
+        <v>1.072375015297993</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9706129349528803</v>
+        <v>1.064927258158817</v>
       </c>
       <c r="D23">
-        <v>0.9824160835029644</v>
+        <v>1.06795460782938</v>
       </c>
       <c r="E23">
-        <v>0.9864130886792772</v>
+        <v>1.068971823647471</v>
       </c>
       <c r="F23">
-        <v>0.9925916052135851</v>
+        <v>1.077573071142135</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039058044452177</v>
+        <v>1.049417148133117</v>
       </c>
       <c r="J23">
-        <v>1.002006152927132</v>
+        <v>1.07142221207989</v>
       </c>
       <c r="K23">
-        <v>0.9980230178499105</v>
+        <v>1.071478365017103</v>
       </c>
       <c r="L23">
-        <v>1.00193941841987</v>
+        <v>1.072491980815252</v>
       </c>
       <c r="M23">
-        <v>1.007995014860694</v>
+        <v>1.081063086947769</v>
       </c>
       <c r="N23">
-        <v>1.003429116596</v>
+        <v>1.072943754514889</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9889179738335384</v>
+        <v>1.067664470652325</v>
       </c>
       <c r="D24">
-        <v>0.9994012239759119</v>
+        <v>1.070567155608349</v>
       </c>
       <c r="E24">
-        <v>1.002568840819136</v>
+        <v>1.07143859736981</v>
       </c>
       <c r="F24">
-        <v>1.009327855461783</v>
+        <v>1.080156896163665</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045883791103487</v>
+        <v>1.050214903868837</v>
       </c>
       <c r="J24">
-        <v>1.016849393589457</v>
+        <v>1.073648393459488</v>
       </c>
       <c r="K24">
-        <v>1.013438862958082</v>
+        <v>1.07382086199378</v>
       </c>
       <c r="L24">
-        <v>1.016550994415726</v>
+        <v>1.074689476784396</v>
       </c>
       <c r="M24">
-        <v>1.023193120006464</v>
+        <v>1.083379768076813</v>
       </c>
       <c r="N24">
-        <v>1.01829343636261</v>
+        <v>1.075173097327392</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.008271879938052</v>
+        <v>1.070822430975431</v>
       </c>
       <c r="D25">
-        <v>1.017398911861363</v>
+        <v>1.073582068912281</v>
       </c>
       <c r="E25">
-        <v>1.019679747759251</v>
+        <v>1.074283280752341</v>
       </c>
       <c r="F25">
-        <v>1.027071973783769</v>
+        <v>1.08313853499963</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053027876103647</v>
+        <v>1.051125365932945</v>
       </c>
       <c r="J25">
-        <v>1.03252403347706</v>
+        <v>1.076212292211472</v>
       </c>
       <c r="K25">
-        <v>1.029733005419104</v>
+        <v>1.076520409343925</v>
       </c>
       <c r="L25">
-        <v>1.031980053616228</v>
+        <v>1.077219584499847</v>
       </c>
       <c r="M25">
-        <v>1.039264080826844</v>
+        <v>1.086049364966487</v>
       </c>
       <c r="N25">
-        <v>1.033990336036759</v>
+        <v>1.077740637109688</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_101/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_101/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.073327139394411</v>
+        <v>1.0224954423305</v>
       </c>
       <c r="D2">
-        <v>1.075973923348161</v>
+        <v>1.030650291197296</v>
       </c>
       <c r="E2">
-        <v>1.076538476814783</v>
+        <v>1.032270606907714</v>
       </c>
       <c r="F2">
-        <v>1.085503883737039</v>
+        <v>1.040142622075021</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05183948584513</v>
+        <v>1.058216231245881</v>
       </c>
       <c r="J2">
-        <v>1.078242206291264</v>
+        <v>1.044023523328843</v>
       </c>
       <c r="K2">
-        <v>1.078659079184975</v>
+        <v>1.041698515575019</v>
       </c>
       <c r="L2">
-        <v>1.079222144536872</v>
+        <v>1.04329794801403</v>
       </c>
       <c r="M2">
-        <v>1.08816414337042</v>
+        <v>1.051069661104012</v>
       </c>
       <c r="N2">
-        <v>1.079773433900307</v>
+        <v>1.045506156483142</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.075138003723011</v>
+        <v>1.032237443042022</v>
       </c>
       <c r="D3">
-        <v>1.077703532402589</v>
+        <v>1.039737984284501</v>
       </c>
       <c r="E3">
-        <v>1.078168336174205</v>
+        <v>1.040900477295755</v>
       </c>
       <c r="F3">
-        <v>1.087214261235087</v>
+        <v>1.049109020892623</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052351135115382</v>
+        <v>1.061732437118499</v>
       </c>
       <c r="J3">
-        <v>1.079707697141129</v>
+        <v>1.051886262604285</v>
       </c>
       <c r="K3">
-        <v>1.080203873611861</v>
+        <v>1.049886455885362</v>
       </c>
       <c r="L3">
-        <v>1.080667542307511</v>
+        <v>1.051035466485582</v>
       </c>
       <c r="M3">
-        <v>1.08969158436577</v>
+        <v>1.059149857497396</v>
       </c>
       <c r="N3">
-        <v>1.081241005915274</v>
+        <v>1.053380061750224</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.076306281046743</v>
+        <v>1.038301897026929</v>
       </c>
       <c r="D4">
-        <v>1.078819539352444</v>
+        <v>1.045399768889251</v>
       </c>
       <c r="E4">
-        <v>1.079219552491735</v>
+        <v>1.046274673760907</v>
       </c>
       <c r="F4">
-        <v>1.088317828673072</v>
+        <v>1.054696251221677</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05267907201375</v>
+        <v>1.063903533092051</v>
       </c>
       <c r="J4">
-        <v>1.080652181150632</v>
+        <v>1.056774111847406</v>
       </c>
       <c r="K4">
-        <v>1.081199831930304</v>
+        <v>1.054979477775541</v>
       </c>
       <c r="L4">
-        <v>1.08159891818876</v>
+        <v>1.055844928829259</v>
       </c>
       <c r="M4">
-        <v>1.090676309610072</v>
+        <v>1.064176488146413</v>
       </c>
       <c r="N4">
-        <v>1.082186831200404</v>
+        <v>1.058274852299915</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.076796611188501</v>
+        <v>1.040798225730895</v>
       </c>
       <c r="D5">
-        <v>1.079287967057067</v>
+        <v>1.047731367731623</v>
       </c>
       <c r="E5">
-        <v>1.079660682838797</v>
+        <v>1.048487259043321</v>
       </c>
       <c r="F5">
-        <v>1.088781027640585</v>
+        <v>1.056997363815918</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052816192296552</v>
+        <v>1.064792897167633</v>
       </c>
       <c r="J5">
-        <v>1.081048350408905</v>
+        <v>1.058784421136335</v>
       </c>
       <c r="K5">
-        <v>1.081617679694437</v>
+        <v>1.057074893109137</v>
       </c>
       <c r="L5">
-        <v>1.081989551377564</v>
+        <v>1.057822861319223</v>
       </c>
       <c r="M5">
-        <v>1.091089433773776</v>
+        <v>1.066244718562962</v>
       </c>
       <c r="N5">
-        <v>1.082583563064465</v>
+        <v>1.06028801645862</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.076878892578104</v>
+        <v>1.041214363590288</v>
       </c>
       <c r="D6">
-        <v>1.079366575110901</v>
+        <v>1.048120102777681</v>
       </c>
       <c r="E6">
-        <v>1.079734704049858</v>
+        <v>1.048856117005629</v>
       </c>
       <c r="F6">
-        <v>1.088858757807704</v>
+        <v>1.057381028040704</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05283917191682</v>
+        <v>1.064940897414592</v>
       </c>
       <c r="J6">
-        <v>1.081114817097994</v>
+        <v>1.059119438225219</v>
       </c>
       <c r="K6">
-        <v>1.081687788584258</v>
+        <v>1.057424135481252</v>
       </c>
       <c r="L6">
-        <v>1.082055087048984</v>
+        <v>1.058152474576992</v>
       </c>
       <c r="M6">
-        <v>1.091158749473245</v>
+        <v>1.066589437158333</v>
       </c>
       <c r="N6">
-        <v>1.082650124143876</v>
+        <v>1.060623509310197</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.076312836034924</v>
+        <v>1.038335456911673</v>
       </c>
       <c r="D7">
-        <v>1.07882580139821</v>
+        <v>1.045431110257898</v>
       </c>
       <c r="E7">
-        <v>1.079225450022869</v>
+        <v>1.046304417670036</v>
       </c>
       <c r="F7">
-        <v>1.088324020849276</v>
+        <v>1.054727181970573</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052680907138412</v>
+        <v>1.063915506688595</v>
       </c>
       <c r="J7">
-        <v>1.080657478267848</v>
+        <v>1.056801144623756</v>
       </c>
       <c r="K7">
-        <v>1.081205418564006</v>
+        <v>1.055007652120517</v>
       </c>
       <c r="L7">
-        <v>1.081604141432469</v>
+        <v>1.055871526784996</v>
       </c>
       <c r="M7">
-        <v>1.09068183313184</v>
+        <v>1.064204296478984</v>
       </c>
       <c r="N7">
-        <v>1.082192135840134</v>
+        <v>1.058301923465907</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.073939859338367</v>
+        <v>1.02583997091185</v>
       </c>
       <c r="D8">
-        <v>1.076559118159918</v>
+        <v>1.033769144206863</v>
       </c>
       <c r="E8">
-        <v>1.077090011361249</v>
+        <v>1.03523282721309</v>
       </c>
       <c r="F8">
-        <v>1.086082578042739</v>
+        <v>1.04321961446504</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052013052733868</v>
+        <v>1.059427107925518</v>
       </c>
       <c r="J8">
-        <v>1.078738268704684</v>
+        <v>1.04672427040677</v>
       </c>
       <c r="K8">
-        <v>1.079181909871055</v>
+        <v>1.04451032362275</v>
       </c>
       <c r="L8">
-        <v>1.079711438522983</v>
+        <v>1.045955794286336</v>
       </c>
       <c r="M8">
-        <v>1.088681110140228</v>
+        <v>1.053844322518183</v>
       </c>
       <c r="N8">
-        <v>1.080270200779253</v>
+        <v>1.0482107389317</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.069730969466355</v>
+        <v>1.001774684552573</v>
       </c>
       <c r="D9">
-        <v>1.072539952401742</v>
+        <v>1.011352635208453</v>
       </c>
       <c r="E9">
-        <v>1.073300254874714</v>
+        <v>1.013932532677839</v>
       </c>
       <c r="F9">
-        <v>1.082107936352549</v>
+        <v>1.021109793514682</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050811931359911</v>
+        <v>1.050639318228902</v>
       </c>
       <c r="J9">
-        <v>1.075326712553536</v>
+        <v>1.02726492940568</v>
       </c>
       <c r="K9">
-        <v>1.075587765101548</v>
+        <v>1.024264170433993</v>
       </c>
       <c r="L9">
-        <v>1.07634577013152</v>
+        <v>1.026803537417534</v>
       </c>
       <c r="M9">
-        <v>1.085127093293324</v>
+        <v>1.033869417947859</v>
       </c>
       <c r="N9">
-        <v>1.07685379982706</v>
+        <v>1.02872376343437</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.066905491141266</v>
+        <v>0.9839976027846929</v>
       </c>
       <c r="D10">
-        <v>1.069842680790814</v>
+        <v>0.9948320017884604</v>
       </c>
       <c r="E10">
-        <v>1.0707547044288</v>
+        <v>0.998223310438737</v>
       </c>
       <c r="F10">
-        <v>1.079440396178243</v>
+        <v>1.004824625136933</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049994479639924</v>
+        <v>1.044054796262081</v>
       </c>
       <c r="J10">
-        <v>1.073031464981936</v>
+        <v>1.012860831535308</v>
       </c>
       <c r="K10">
-        <v>1.07317156687478</v>
+        <v>1.009295197205416</v>
       </c>
       <c r="L10">
-        <v>1.0740805573439</v>
+        <v>1.012624717831737</v>
       </c>
       <c r="M10">
-        <v>1.082737644179124</v>
+        <v>1.01910731246958</v>
       </c>
       <c r="N10">
-        <v>1.07455529274064</v>
+        <v>1.014299210092849</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.065677137699419</v>
+        <v>0.9757865912552023</v>
       </c>
       <c r="D11">
-        <v>1.068670272547695</v>
+        <v>0.987212904386795</v>
       </c>
       <c r="E11">
-        <v>1.069647711505717</v>
+        <v>0.9909762266018549</v>
       </c>
       <c r="F11">
-        <v>1.078280877354683</v>
+        <v>0.9973171269157733</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049636466104409</v>
+        <v>1.040992922334714</v>
       </c>
       <c r="J11">
-        <v>1.072032436680987</v>
+        <v>1.00620255986634</v>
       </c>
       <c r="K11">
-        <v>1.072120342395583</v>
+        <v>1.002380063792715</v>
       </c>
       <c r="L11">
-        <v>1.073094401198535</v>
+        <v>1.006070348360081</v>
       </c>
       <c r="M11">
-        <v>1.081698004602055</v>
+        <v>1.012289816270064</v>
       </c>
       <c r="N11">
-        <v>1.073554845704913</v>
+        <v>1.007631482914397</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.065220114069328</v>
+        <v>0.9726486015874624</v>
       </c>
       <c r="D12">
-        <v>1.068234096026355</v>
+        <v>0.9843031155719351</v>
       </c>
       <c r="E12">
-        <v>1.069235791576703</v>
+        <v>0.9882082345738643</v>
       </c>
       <c r="F12">
-        <v>1.077849491199162</v>
+        <v>0.9944504907052173</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049502867740204</v>
+        <v>1.039819843286246</v>
       </c>
       <c r="J12">
-        <v>1.07166055807034</v>
+        <v>1.003657387990101</v>
       </c>
       <c r="K12">
-        <v>1.071729101673856</v>
+        <v>0.9997373511491598</v>
       </c>
       <c r="L12">
-        <v>1.072727283793576</v>
+        <v>1.003564887569629</v>
       </c>
       <c r="M12">
-        <v>1.081311067636538</v>
+        <v>1.009684788490281</v>
       </c>
       <c r="N12">
-        <v>1.073182438983984</v>
+        <v>1.005082696602158</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.065318181866214</v>
+        <v>0.9733258959981245</v>
       </c>
       <c r="D13">
-        <v>1.068327689005378</v>
+        <v>0.9849310616115967</v>
       </c>
       <c r="E13">
-        <v>1.069324183305087</v>
+        <v>0.988805591755514</v>
       </c>
       <c r="F13">
-        <v>1.077942056502642</v>
+        <v>0.9950690987717283</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049531553048483</v>
+        <v>1.040073166193417</v>
       </c>
       <c r="J13">
-        <v>1.071740363564635</v>
+        <v>1.00420675351349</v>
       </c>
       <c r="K13">
-        <v>1.071813059245688</v>
+        <v>1.000307741203319</v>
       </c>
       <c r="L13">
-        <v>1.072806068903409</v>
+        <v>1.004105681353045</v>
       </c>
       <c r="M13">
-        <v>1.081394102006435</v>
+        <v>1.010247026996379</v>
       </c>
       <c r="N13">
-        <v>1.073262357811235</v>
+        <v>1.005632842287604</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.065639375583798</v>
+        <v>0.9755290716233258</v>
       </c>
       <c r="D14">
-        <v>1.068634232291828</v>
+        <v>0.9869740702780664</v>
       </c>
       <c r="E14">
-        <v>1.069613677151618</v>
+        <v>0.9907490363814155</v>
       </c>
       <c r="F14">
-        <v>1.078245233015718</v>
+        <v>0.9970818234786359</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049625435435912</v>
+        <v>1.040896711543788</v>
       </c>
       <c r="J14">
-        <v>1.072001713402922</v>
+        <v>1.005993700632049</v>
       </c>
       <c r="K14">
-        <v>1.072088018115098</v>
+        <v>1.002163187155933</v>
       </c>
       <c r="L14">
-        <v>1.073064071893464</v>
+        <v>1.005864747792001</v>
       </c>
       <c r="M14">
-        <v>1.08166603605752</v>
+        <v>1.012076024380506</v>
       </c>
       <c r="N14">
-        <v>1.073524078796269</v>
+        <v>1.007422327076036</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.065837172469545</v>
+        <v>0.9768744876007944</v>
       </c>
       <c r="D15">
-        <v>1.06882301144019</v>
+        <v>0.9882219455466845</v>
       </c>
       <c r="E15">
-        <v>1.069791946088215</v>
+        <v>0.9919360630304698</v>
       </c>
       <c r="F15">
-        <v>1.078431938146569</v>
+        <v>0.998311273534654</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049683197595231</v>
+        <v>1.04139924911058</v>
       </c>
       <c r="J15">
-        <v>1.072162633769645</v>
+        <v>1.007084866808012</v>
       </c>
       <c r="K15">
-        <v>1.072257326865278</v>
+        <v>1.003296265739302</v>
       </c>
       <c r="L15">
-        <v>1.073222927492355</v>
+        <v>1.006938889295775</v>
       </c>
       <c r="M15">
-        <v>1.081833481205491</v>
+        <v>1.013193002031356</v>
       </c>
       <c r="N15">
-        <v>1.073685227688372</v>
+        <v>1.008515042833128</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.06698690775714</v>
+        <v>0.9845308411594099</v>
       </c>
       <c r="D16">
-        <v>1.06992039374219</v>
+        <v>0.995327057499974</v>
       </c>
       <c r="E16">
-        <v>1.07082807011587</v>
+        <v>0.99869415330789</v>
       </c>
       <c r="F16">
-        <v>1.079517254056228</v>
+        <v>1.005312497673533</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05001815382014</v>
+        <v>1.044253231096918</v>
       </c>
       <c r="J16">
-        <v>1.073097656710871</v>
+        <v>1.013293140525738</v>
       </c>
       <c r="K16">
-        <v>1.073241226354016</v>
+        <v>1.009744271542045</v>
       </c>
       <c r="L16">
-        <v>1.074145891978257</v>
+        <v>1.013050278110347</v>
       </c>
       <c r="M16">
-        <v>1.082806534877778</v>
+        <v>1.019550093415142</v>
       </c>
       <c r="N16">
-        <v>1.074621578469421</v>
+        <v>1.014732133011633</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.06770677836861</v>
+        <v>0.9891889711179219</v>
       </c>
       <c r="D17">
-        <v>1.070607541351581</v>
+        <v>0.9996529574307775</v>
       </c>
       <c r="E17">
-        <v>1.071476717258215</v>
+        <v>1.002808235822551</v>
       </c>
       <c r="F17">
-        <v>1.080196837121209</v>
+        <v>1.009575973012049</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050227173035645</v>
+        <v>1.045984390279408</v>
       </c>
       <c r="J17">
-        <v>1.073682774753475</v>
+        <v>1.017069035664749</v>
       </c>
       <c r="K17">
-        <v>1.073857050125738</v>
+        <v>1.013667074297742</v>
       </c>
       <c r="L17">
-        <v>1.074723410370882</v>
+        <v>1.016767205005468</v>
       </c>
       <c r="M17">
-        <v>1.083415556164365</v>
+        <v>1.023418158455483</v>
       </c>
       <c r="N17">
-        <v>1.075207527446761</v>
+        <v>1.018513390354842</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.068126195172117</v>
+        <v>0.9918572845245418</v>
       </c>
       <c r="D18">
-        <v>1.07100791282661</v>
+        <v>1.002132015699949</v>
       </c>
       <c r="E18">
-        <v>1.071854604911215</v>
+        <v>1.00516569913264</v>
       </c>
       <c r="F18">
-        <v>1.080592797799428</v>
+        <v>1.012019530678844</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050348700003999</v>
+        <v>1.046974129517361</v>
       </c>
       <c r="J18">
-        <v>1.074023566522991</v>
+        <v>1.019231483007034</v>
       </c>
       <c r="K18">
-        <v>1.074215769074791</v>
+        <v>1.015914048977064</v>
       </c>
       <c r="L18">
-        <v>1.075059756556244</v>
+        <v>1.018895857666505</v>
       </c>
       <c r="M18">
-        <v>1.083770307549264</v>
+        <v>1.025633967278606</v>
       </c>
       <c r="N18">
-        <v>1.075548803179679</v>
+        <v>1.020678908620389</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.068269126139652</v>
+        <v>0.9927591476254164</v>
       </c>
       <c r="D19">
-        <v>1.071144356803671</v>
+        <v>1.002970084977427</v>
       </c>
       <c r="E19">
-        <v>1.071983377861587</v>
+        <v>1.005962625439483</v>
       </c>
       <c r="F19">
-        <v>1.080727738048838</v>
+        <v>1.012845642889005</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050390071565684</v>
+        <v>1.047308321512388</v>
       </c>
       <c r="J19">
-        <v>1.074139683838872</v>
+        <v>1.019962279303007</v>
       </c>
       <c r="K19">
-        <v>1.074338002005369</v>
+        <v>1.016673477746687</v>
       </c>
       <c r="L19">
-        <v>1.075174355868215</v>
+        <v>1.019615228349459</v>
       </c>
       <c r="M19">
-        <v>1.083891187671087</v>
+        <v>1.02638289294903</v>
       </c>
       <c r="N19">
-        <v>1.075665085395467</v>
+        <v>1.021410742730925</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.067629591996764</v>
+        <v>0.9886943065128404</v>
       </c>
       <c r="D20">
-        <v>1.070533861548058</v>
+        <v>0.9991934620053063</v>
       </c>
       <c r="E20">
-        <v>1.071407170994198</v>
+        <v>1.002371260894843</v>
       </c>
       <c r="F20">
-        <v>1.080123968766874</v>
+        <v>1.009123079330833</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050204787687302</v>
+        <v>1.045800750749549</v>
       </c>
       <c r="J20">
-        <v>1.073620048733728</v>
+        <v>1.016668109391478</v>
       </c>
       <c r="K20">
-        <v>1.073791027912952</v>
+        <v>1.013250508252452</v>
       </c>
       <c r="L20">
-        <v>1.074661501050087</v>
+        <v>1.016372542296791</v>
       </c>
       <c r="M20">
-        <v>1.083350263770283</v>
+        <v>1.023007385112382</v>
       </c>
       <c r="N20">
-        <v>1.075144712348871</v>
+        <v>1.018111894720276</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.065544813154207</v>
+        <v>0.9748828211695357</v>
       </c>
       <c r="D21">
-        <v>1.068543982196474</v>
+        <v>0.9863747443507566</v>
       </c>
       <c r="E21">
-        <v>1.069528448833724</v>
+        <v>0.9901789251554044</v>
       </c>
       <c r="F21">
-        <v>1.07815597427505</v>
+        <v>0.9964913661905669</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049597806483532</v>
+        <v>1.040655222370968</v>
       </c>
       <c r="J21">
-        <v>1.071924774482744</v>
+        <v>1.005469555622581</v>
       </c>
       <c r="K21">
-        <v>1.072007070965121</v>
+        <v>1.001618932381678</v>
       </c>
       <c r="L21">
-        <v>1.072988119091838</v>
+        <v>1.005348780614245</v>
       </c>
       <c r="M21">
-        <v>1.081585979622314</v>
+        <v>1.011539517003795</v>
       </c>
       <c r="N21">
-        <v>1.073447030614</v>
+        <v>1.006897437720535</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.064229630633448</v>
+        <v>0.9656823225034626</v>
       </c>
       <c r="D22">
-        <v>1.067288852839333</v>
+        <v>0.9778474483678191</v>
       </c>
       <c r="E22">
-        <v>1.068342968227619</v>
+        <v>0.9820667133181449</v>
       </c>
       <c r="F22">
-        <v>1.076914620364721</v>
+        <v>0.9880916525405371</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049212604398046</v>
+        <v>1.037210412286042</v>
       </c>
       <c r="J22">
-        <v>1.070854279392552</v>
+        <v>0.9980063064821632</v>
       </c>
       <c r="K22">
-        <v>1.070880966934275</v>
+        <v>0.9938709065132214</v>
       </c>
       <c r="L22">
-        <v>1.071931272302368</v>
+        <v>0.9980020044365961</v>
       </c>
       <c r="M22">
-        <v>1.08047224830682</v>
+        <v>1.003902765765321</v>
       </c>
       <c r="N22">
-        <v>1.072375015297993</v>
+        <v>0.9994235899102911</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.064927258158817</v>
+        <v>0.9706129349528823</v>
       </c>
       <c r="D23">
-        <v>1.06795460782938</v>
+        <v>0.9824160835029666</v>
       </c>
       <c r="E23">
-        <v>1.068971823647471</v>
+        <v>0.9864130886792792</v>
       </c>
       <c r="F23">
-        <v>1.077573071142135</v>
+        <v>0.9925916052135871</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049417148133117</v>
+        <v>1.039058044452178</v>
       </c>
       <c r="J23">
-        <v>1.07142221207989</v>
+        <v>1.002006152927134</v>
       </c>
       <c r="K23">
-        <v>1.071478365017103</v>
+        <v>0.9980230178499128</v>
       </c>
       <c r="L23">
-        <v>1.072491980815252</v>
+        <v>1.001939418419871</v>
       </c>
       <c r="M23">
-        <v>1.081063086947769</v>
+        <v>1.007995014860696</v>
       </c>
       <c r="N23">
-        <v>1.072943754514889</v>
+        <v>1.003429116596002</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.067664470652325</v>
+        <v>0.9889179738335373</v>
       </c>
       <c r="D24">
-        <v>1.070567155608349</v>
+        <v>0.9994012239759105</v>
       </c>
       <c r="E24">
-        <v>1.07143859736981</v>
+        <v>1.002568840819134</v>
       </c>
       <c r="F24">
-        <v>1.080156896163665</v>
+        <v>1.009327855461782</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050214903868837</v>
+        <v>1.045883791103486</v>
       </c>
       <c r="J24">
-        <v>1.073648393459488</v>
+        <v>1.016849393589456</v>
       </c>
       <c r="K24">
-        <v>1.07382086199378</v>
+        <v>1.013438862958081</v>
       </c>
       <c r="L24">
-        <v>1.074689476784396</v>
+        <v>1.016550994415725</v>
       </c>
       <c r="M24">
-        <v>1.083379768076813</v>
+        <v>1.023193120006463</v>
       </c>
       <c r="N24">
-        <v>1.075173097327392</v>
+        <v>1.018293436362609</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.070822430975431</v>
+        <v>1.008271879938054</v>
       </c>
       <c r="D25">
-        <v>1.073582068912281</v>
+        <v>1.017398911861366</v>
       </c>
       <c r="E25">
-        <v>1.074283280752341</v>
+        <v>1.019679747759253</v>
       </c>
       <c r="F25">
-        <v>1.08313853499963</v>
+        <v>1.027071973783771</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051125365932945</v>
+        <v>1.053027876103647</v>
       </c>
       <c r="J25">
-        <v>1.076212292211472</v>
+        <v>1.032524033477062</v>
       </c>
       <c r="K25">
-        <v>1.076520409343925</v>
+        <v>1.029733005419106</v>
       </c>
       <c r="L25">
-        <v>1.077219584499847</v>
+        <v>1.03198005361623</v>
       </c>
       <c r="M25">
-        <v>1.086049364966487</v>
+        <v>1.039264080826846</v>
       </c>
       <c r="N25">
-        <v>1.077740637109688</v>
+        <v>1.033990336036762</v>
       </c>
     </row>
   </sheetData>
